--- a/name/dictionary_last.xlsx
+++ b/name/dictionary_last.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\name\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD15F06B-4D04-4191-BAE1-4364164247EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2F4DCA-7464-4497-B9FD-99F6676DD3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1685</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="414">
   <si>
     <t>Japanese</t>
   </si>
@@ -729,6 +719,552 @@
   </si>
   <si>
     <t>PET 1000ml</t>
+  </si>
+  <si>
+    <t>缶100g</t>
+  </si>
+  <si>
+    <t>缶110g</t>
+  </si>
+  <si>
+    <t>缶120g</t>
+  </si>
+  <si>
+    <t>缶130g</t>
+  </si>
+  <si>
+    <t>缶140g</t>
+  </si>
+  <si>
+    <t>缶150g</t>
+  </si>
+  <si>
+    <t>缶160g</t>
+  </si>
+  <si>
+    <t>缶170g</t>
+  </si>
+  <si>
+    <t>缶180g</t>
+  </si>
+  <si>
+    <t>缶190g</t>
+  </si>
+  <si>
+    <t>缶200g</t>
+  </si>
+  <si>
+    <t>缶210g</t>
+  </si>
+  <si>
+    <t>缶220g</t>
+  </si>
+  <si>
+    <t>缶230g</t>
+  </si>
+  <si>
+    <t>缶240g</t>
+  </si>
+  <si>
+    <t>缶250g</t>
+  </si>
+  <si>
+    <t>缶260g</t>
+  </si>
+  <si>
+    <t>缶270g</t>
+  </si>
+  <si>
+    <t>缶280g</t>
+  </si>
+  <si>
+    <t>缶290g</t>
+  </si>
+  <si>
+    <t>缶300g</t>
+  </si>
+  <si>
+    <t>缶310g</t>
+  </si>
+  <si>
+    <t>缶320g</t>
+  </si>
+  <si>
+    <t>缶330g</t>
+  </si>
+  <si>
+    <t>缶340g</t>
+  </si>
+  <si>
+    <t>缶350g</t>
+  </si>
+  <si>
+    <t>缶360g</t>
+  </si>
+  <si>
+    <t>缶370g</t>
+  </si>
+  <si>
+    <t>缶380g</t>
+  </si>
+  <si>
+    <t>缶390g</t>
+  </si>
+  <si>
+    <t>缶400g</t>
+  </si>
+  <si>
+    <t>缶410g</t>
+  </si>
+  <si>
+    <t>缶420g</t>
+  </si>
+  <si>
+    <t>缶430g</t>
+  </si>
+  <si>
+    <t>缶440g</t>
+  </si>
+  <si>
+    <t>缶450g</t>
+  </si>
+  <si>
+    <t>缶460g</t>
+  </si>
+  <si>
+    <t>缶470g</t>
+  </si>
+  <si>
+    <t>缶480g</t>
+  </si>
+  <si>
+    <t>缶490g</t>
+  </si>
+  <si>
+    <t>缶500g</t>
+  </si>
+  <si>
+    <t>缶510g</t>
+  </si>
+  <si>
+    <t>缶520g</t>
+  </si>
+  <si>
+    <t>缶530g</t>
+  </si>
+  <si>
+    <t>缶540g</t>
+  </si>
+  <si>
+    <t>缶550g</t>
+  </si>
+  <si>
+    <t>缶560g</t>
+  </si>
+  <si>
+    <t>缶570g</t>
+  </si>
+  <si>
+    <t>缶580g</t>
+  </si>
+  <si>
+    <t>缶590g</t>
+  </si>
+  <si>
+    <t>缶600g</t>
+  </si>
+  <si>
+    <t>缶610g</t>
+  </si>
+  <si>
+    <t>缶620g</t>
+  </si>
+  <si>
+    <t>缶630g</t>
+  </si>
+  <si>
+    <t>缶640g</t>
+  </si>
+  <si>
+    <t>缶650g</t>
+  </si>
+  <si>
+    <t>缶660g</t>
+  </si>
+  <si>
+    <t>缶670g</t>
+  </si>
+  <si>
+    <t>缶680g</t>
+  </si>
+  <si>
+    <t>缶690g</t>
+  </si>
+  <si>
+    <t>缶700g</t>
+  </si>
+  <si>
+    <t>缶710g</t>
+  </si>
+  <si>
+    <t>缶720g</t>
+  </si>
+  <si>
+    <t>缶730g</t>
+  </si>
+  <si>
+    <t>缶740g</t>
+  </si>
+  <si>
+    <t>缶750g</t>
+  </si>
+  <si>
+    <t>缶760g</t>
+  </si>
+  <si>
+    <t>缶770g</t>
+  </si>
+  <si>
+    <t>缶780g</t>
+  </si>
+  <si>
+    <t>缶790g</t>
+  </si>
+  <si>
+    <t>缶800g</t>
+  </si>
+  <si>
+    <t>缶810g</t>
+  </si>
+  <si>
+    <t>缶820g</t>
+  </si>
+  <si>
+    <t>缶830g</t>
+  </si>
+  <si>
+    <t>缶840g</t>
+  </si>
+  <si>
+    <t>缶850g</t>
+  </si>
+  <si>
+    <t>缶860g</t>
+  </si>
+  <si>
+    <t>缶870g</t>
+  </si>
+  <si>
+    <t>缶880g</t>
+  </si>
+  <si>
+    <t>缶890g</t>
+  </si>
+  <si>
+    <t>缶900g</t>
+  </si>
+  <si>
+    <t>缶910g</t>
+  </si>
+  <si>
+    <t>缶920g</t>
+  </si>
+  <si>
+    <t>缶930g</t>
+  </si>
+  <si>
+    <t>缶940g</t>
+  </si>
+  <si>
+    <t>缶950g</t>
+  </si>
+  <si>
+    <t>缶960g</t>
+  </si>
+  <si>
+    <t>缶970g</t>
+  </si>
+  <si>
+    <t>缶980g</t>
+  </si>
+  <si>
+    <t>缶990g</t>
+  </si>
+  <si>
+    <t>缶1000g</t>
+  </si>
+  <si>
+    <t>Can 100g</t>
+  </si>
+  <si>
+    <t>Can 110g</t>
+  </si>
+  <si>
+    <t>Can 120g</t>
+  </si>
+  <si>
+    <t>Can 130g</t>
+  </si>
+  <si>
+    <t>Can 140g</t>
+  </si>
+  <si>
+    <t>Can 150g</t>
+  </si>
+  <si>
+    <t>Can 160g</t>
+  </si>
+  <si>
+    <t>Can 170g</t>
+  </si>
+  <si>
+    <t>Can 180g</t>
+  </si>
+  <si>
+    <t>Can 190g</t>
+  </si>
+  <si>
+    <t>Can 200g</t>
+  </si>
+  <si>
+    <t>Can 210g</t>
+  </si>
+  <si>
+    <t>Can 220g</t>
+  </si>
+  <si>
+    <t>Can 230g</t>
+  </si>
+  <si>
+    <t>Can 240g</t>
+  </si>
+  <si>
+    <t>Can 250g</t>
+  </si>
+  <si>
+    <t>Can 260g</t>
+  </si>
+  <si>
+    <t>Can 270g</t>
+  </si>
+  <si>
+    <t>Can 280g</t>
+  </si>
+  <si>
+    <t>Can 290g</t>
+  </si>
+  <si>
+    <t>Can 300g</t>
+  </si>
+  <si>
+    <t>Can 310g</t>
+  </si>
+  <si>
+    <t>Can 320g</t>
+  </si>
+  <si>
+    <t>Can 330g</t>
+  </si>
+  <si>
+    <t>Can 340g</t>
+  </si>
+  <si>
+    <t>Can 350g</t>
+  </si>
+  <si>
+    <t>Can 360g</t>
+  </si>
+  <si>
+    <t>Can 370g</t>
+  </si>
+  <si>
+    <t>Can 380g</t>
+  </si>
+  <si>
+    <t>Can 390g</t>
+  </si>
+  <si>
+    <t>Can 400g</t>
+  </si>
+  <si>
+    <t>Can 410g</t>
+  </si>
+  <si>
+    <t>Can 420g</t>
+  </si>
+  <si>
+    <t>Can 430g</t>
+  </si>
+  <si>
+    <t>Can 440g</t>
+  </si>
+  <si>
+    <t>Can 450g</t>
+  </si>
+  <si>
+    <t>Can 460g</t>
+  </si>
+  <si>
+    <t>Can 470g</t>
+  </si>
+  <si>
+    <t>Can 480g</t>
+  </si>
+  <si>
+    <t>Can 490g</t>
+  </si>
+  <si>
+    <t>Can 500g</t>
+  </si>
+  <si>
+    <t>Can 510g</t>
+  </si>
+  <si>
+    <t>Can 520g</t>
+  </si>
+  <si>
+    <t>Can 530g</t>
+  </si>
+  <si>
+    <t>Can 540g</t>
+  </si>
+  <si>
+    <t>Can 550g</t>
+  </si>
+  <si>
+    <t>Can 560g</t>
+  </si>
+  <si>
+    <t>Can 570g</t>
+  </si>
+  <si>
+    <t>Can 580g</t>
+  </si>
+  <si>
+    <t>Can 590g</t>
+  </si>
+  <si>
+    <t>Can 600g</t>
+  </si>
+  <si>
+    <t>Can 610g</t>
+  </si>
+  <si>
+    <t>Can 620g</t>
+  </si>
+  <si>
+    <t>Can 630g</t>
+  </si>
+  <si>
+    <t>Can 640g</t>
+  </si>
+  <si>
+    <t>Can 650g</t>
+  </si>
+  <si>
+    <t>Can 660g</t>
+  </si>
+  <si>
+    <t>Can 670g</t>
+  </si>
+  <si>
+    <t>Can 680g</t>
+  </si>
+  <si>
+    <t>Can 690g</t>
+  </si>
+  <si>
+    <t>Can 700g</t>
+  </si>
+  <si>
+    <t>Can 710g</t>
+  </si>
+  <si>
+    <t>Can 720g</t>
+  </si>
+  <si>
+    <t>Can 730g</t>
+  </si>
+  <si>
+    <t>Can 740g</t>
+  </si>
+  <si>
+    <t>Can 750g</t>
+  </si>
+  <si>
+    <t>Can 760g</t>
+  </si>
+  <si>
+    <t>Can 770g</t>
+  </si>
+  <si>
+    <t>Can 780g</t>
+  </si>
+  <si>
+    <t>Can 790g</t>
+  </si>
+  <si>
+    <t>Can 800g</t>
+  </si>
+  <si>
+    <t>Can 810g</t>
+  </si>
+  <si>
+    <t>Can 820g</t>
+  </si>
+  <si>
+    <t>Can 830g</t>
+  </si>
+  <si>
+    <t>Can 840g</t>
+  </si>
+  <si>
+    <t>Can 850g</t>
+  </si>
+  <si>
+    <t>Can 860g</t>
+  </si>
+  <si>
+    <t>Can 870g</t>
+  </si>
+  <si>
+    <t>Can 880g</t>
+  </si>
+  <si>
+    <t>Can 890g</t>
+  </si>
+  <si>
+    <t>Can 900g</t>
+  </si>
+  <si>
+    <t>Can 910g</t>
+  </si>
+  <si>
+    <t>Can 920g</t>
+  </si>
+  <si>
+    <t>Can 930g</t>
+  </si>
+  <si>
+    <t>Can 940g</t>
+  </si>
+  <si>
+    <t>Can 950g</t>
+  </si>
+  <si>
+    <t>Can 960g</t>
+  </si>
+  <si>
+    <t>Can 970g</t>
+  </si>
+  <si>
+    <t>Can 980g</t>
+  </si>
+  <si>
+    <t>Can 990g</t>
+  </si>
+  <si>
+    <t>Can 1000g</t>
   </si>
 </sst>
 </file>
@@ -1559,16 +2095,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1592,6 +2118,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1606,14 +2142,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1685" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31E880F3-601E-4A23-91BF-5CF49E0AE873}" name="Table1" displayName="Table1" ref="A1:B1685" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A1:B1685" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1685">
     <sortCondition descending="1" ref="B5:B1685"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{54EBA6F5-E9BF-4232-BECC-69FB485DBB2B}" name="Japanese" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{1BF58F47-A867-48E5-94A7-3EDDF931DA6B}" name="English" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{54EBA6F5-E9BF-4232-BECC-69FB485DBB2B}" name="Japanese" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1BF58F47-A867-48E5-94A7-3EDDF931DA6B}" name="English" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,8 +2416,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -2828,339 +3364,746 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="65"/>
-      <c r="B118" s="73"/>
+      <c r="A118" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="73" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="B119" s="73"/>
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="73" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="61"/>
-      <c r="B120" s="73"/>
+      <c r="A120" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="73" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="B121" s="73"/>
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="73" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="66"/>
-      <c r="B122" s="73"/>
+      <c r="A122" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" s="73" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="B123" s="73"/>
+      <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" s="73" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="B124" s="73"/>
+      <c r="A124" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="73" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="61"/>
-      <c r="B125" s="73"/>
+      <c r="A125" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" s="73" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="61"/>
-      <c r="B126" s="73"/>
+      <c r="A126" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" s="73" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="61"/>
-      <c r="B127" s="73"/>
+      <c r="A127" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="B128" s="73"/>
+      <c r="A128" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" s="73" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="B129" s="73"/>
+      <c r="A129" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="73" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="B130" s="73"/>
+      <c r="A130" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" s="73" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="58"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="73" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="B132" s="73"/>
+      <c r="A132" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="55"/>
-      <c r="B133" s="73"/>
+      <c r="A133" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" s="73" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="55"/>
-      <c r="B134" s="73"/>
+      <c r="A134" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="73" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="B135" s="73"/>
+      <c r="A135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="73" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="B136" s="73"/>
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="73" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="63"/>
-      <c r="B137" s="73"/>
+      <c r="A137" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="73" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="61"/>
-      <c r="B138" s="73"/>
+      <c r="A138" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="73" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="35"/>
-      <c r="B139" s="73"/>
+      <c r="A139" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="73" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="B140" s="73"/>
+      <c r="A140" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" s="73" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="64"/>
-      <c r="B141" s="73"/>
+      <c r="A141" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="73" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="B142" s="73"/>
+      <c r="A142" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142" s="73" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="61"/>
-      <c r="B143" s="73"/>
+      <c r="A143" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" s="73" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="7"/>
-      <c r="B144" s="73"/>
+      <c r="A144" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="73" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="54"/>
-      <c r="B145" s="73"/>
+      <c r="A145" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="73" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="58"/>
-      <c r="B146" s="73"/>
+      <c r="A146" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" s="73" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="B147" s="73"/>
+      <c r="A147" t="s">
+        <v>261</v>
+      </c>
+      <c r="B147" s="73" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="B148" s="73"/>
+      <c r="A148" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" s="73" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="54"/>
-      <c r="B149" s="73"/>
+      <c r="A149" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" s="73" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="B150" s="73"/>
+      <c r="A150" t="s">
+        <v>264</v>
+      </c>
+      <c r="B150" s="73" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="61"/>
-      <c r="B151" s="73"/>
+      <c r="A151" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" s="73" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="B152" s="73"/>
+      <c r="A152" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" s="73" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="61"/>
-      <c r="B153" s="73"/>
+      <c r="A153" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" s="73" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="63"/>
-      <c r="B154" s="73"/>
+      <c r="A154" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B154" s="73" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="B155" s="73"/>
+      <c r="A155" t="s">
+        <v>269</v>
+      </c>
+      <c r="B155" s="73" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="B156" s="73"/>
+      <c r="A156" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="73" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="35"/>
-      <c r="B157" s="73"/>
+      <c r="A157" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B157" s="73" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="57"/>
-      <c r="B158" s="73"/>
+      <c r="A158" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B158" s="73" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="62"/>
-      <c r="B159" s="73"/>
+      <c r="A159" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" s="73" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="61"/>
-      <c r="B160" s="73"/>
+      <c r="A160" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B160" s="73" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="B161" s="73"/>
+      <c r="A161" t="s">
+        <v>275</v>
+      </c>
+      <c r="B161" s="73" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="61"/>
-      <c r="B162" s="73"/>
+      <c r="A162" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B162" s="73" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="66"/>
-      <c r="B163" s="73"/>
+      <c r="A163" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" s="73" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="B164" s="73"/>
+      <c r="A164" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="73" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="54"/>
-      <c r="B165" s="73"/>
+      <c r="A165" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B165" s="73" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="55"/>
-      <c r="B166" s="73"/>
+      <c r="A166" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="B166" s="73" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="B167" s="73"/>
+      <c r="A167" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" s="73" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="55"/>
-      <c r="B168" s="73"/>
+      <c r="A168" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="73" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="54"/>
-      <c r="B169" s="73"/>
+      <c r="A169" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B169" s="73" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="B170" s="73"/>
+      <c r="A170" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" s="73" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="66"/>
-      <c r="B171" s="73"/>
+      <c r="A171" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" s="73" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="55"/>
-      <c r="B172" s="73"/>
+      <c r="A172" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B172" s="73" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="67"/>
-      <c r="B173" s="73"/>
+      <c r="A173" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" s="73" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="B174" s="73"/>
+      <c r="A174" t="s">
+        <v>288</v>
+      </c>
+      <c r="B174" s="73" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="61"/>
-      <c r="B175" s="73"/>
+      <c r="A175" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B175" s="73" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="61"/>
-      <c r="B176" s="73"/>
+      <c r="A176" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B176" s="73" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="B177" s="73"/>
+      <c r="A177" t="s">
+        <v>291</v>
+      </c>
+      <c r="B177" s="73" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="B178" s="73"/>
+      <c r="A178" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" s="73" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="61"/>
-      <c r="B179" s="73"/>
+      <c r="A179" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B179" s="73" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="B180" s="73"/>
+      <c r="A180" t="s">
+        <v>294</v>
+      </c>
+      <c r="B180" s="73" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="B181" s="73"/>
+      <c r="A181" t="s">
+        <v>295</v>
+      </c>
+      <c r="B181" s="73" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="B182" s="73"/>
+      <c r="A182" t="s">
+        <v>296</v>
+      </c>
+      <c r="B182" s="73" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="B183" s="73"/>
+      <c r="A183" t="s">
+        <v>297</v>
+      </c>
+      <c r="B183" s="73" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="B184" s="73"/>
+      <c r="A184" t="s">
+        <v>298</v>
+      </c>
+      <c r="B184" s="73" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="B185" s="73"/>
+      <c r="A185" t="s">
+        <v>299</v>
+      </c>
+      <c r="B185" s="73" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="B186" s="73"/>
+      <c r="A186" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186" s="73" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="B187" s="73"/>
+      <c r="A187" t="s">
+        <v>301</v>
+      </c>
+      <c r="B187" s="73" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="B188" s="73"/>
+      <c r="A188" t="s">
+        <v>302</v>
+      </c>
+      <c r="B188" s="73" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="61"/>
-      <c r="B189" s="73"/>
+      <c r="A189" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B189" s="73" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="59"/>
-      <c r="B190" s="73"/>
+      <c r="A190" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" s="73" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="B191" s="73"/>
+      <c r="A191" t="s">
+        <v>305</v>
+      </c>
+      <c r="B191" s="73" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="B192" s="73"/>
+      <c r="A192" t="s">
+        <v>306</v>
+      </c>
+      <c r="B192" s="73" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="B193" s="73"/>
+      <c r="A193" t="s">
+        <v>307</v>
+      </c>
+      <c r="B193" s="73" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="B194" s="73"/>
+      <c r="A194" t="s">
+        <v>308</v>
+      </c>
+      <c r="B194" s="73" t="s">
+        <v>399</v>
+      </c>
       <c r="F194" s="3"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="10"/>
-      <c r="B195" s="73"/>
+      <c r="A195" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B195" s="73" t="s">
+        <v>400</v>
+      </c>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="B196" s="73"/>
+      <c r="A196" t="s">
+        <v>310</v>
+      </c>
+      <c r="B196" s="73" t="s">
+        <v>401</v>
+      </c>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="B197" s="73"/>
+      <c r="A197" t="s">
+        <v>311</v>
+      </c>
+      <c r="B197" s="73" t="s">
+        <v>402</v>
+      </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="64"/>
-      <c r="B198" s="73"/>
+      <c r="A198" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B198" s="73" t="s">
+        <v>403</v>
+      </c>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="64"/>
-      <c r="B199" s="73"/>
+      <c r="A199" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B199" s="73" t="s">
+        <v>404</v>
+      </c>
       <c r="F199" s="3"/>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="54"/>
-      <c r="B200" s="73"/>
+      <c r="A200" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="B200" s="73" t="s">
+        <v>405</v>
+      </c>
       <c r="F200" s="3"/>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="59"/>
-      <c r="B201" s="73"/>
+      <c r="A201" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" s="73" t="s">
+        <v>406</v>
+      </c>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="B202" s="73"/>
+      <c r="A202" t="s">
+        <v>316</v>
+      </c>
+      <c r="B202" s="73" t="s">
+        <v>407</v>
+      </c>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="55"/>
-      <c r="B203" s="73"/>
+      <c r="A203" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" s="73" t="s">
+        <v>408</v>
+      </c>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="55"/>
-      <c r="B204" s="73"/>
+      <c r="A204" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B204" s="73" t="s">
+        <v>409</v>
+      </c>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="55"/>
-      <c r="B205" s="73"/>
+      <c r="A205" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B205" s="73" t="s">
+        <v>410</v>
+      </c>
       <c r="F205" s="3"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="B206" s="73"/>
+      <c r="A206" t="s">
+        <v>320</v>
+      </c>
+      <c r="B206" s="73" t="s">
+        <v>411</v>
+      </c>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="55"/>
-      <c r="B207" s="73"/>
+      <c r="A207" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="B207" s="73" t="s">
+        <v>412</v>
+      </c>
       <c r="F207" s="3"/>
     </row>
     <row r="208" spans="1:6">
-      <c r="B208" s="73"/>
+      <c r="A208" t="s">
+        <v>322</v>
+      </c>
+      <c r="B208" s="73" t="s">
+        <v>413</v>
+      </c>
       <c r="F208" s="3"/>
     </row>
     <row r="209" spans="1:6">
@@ -9260,7 +10203,7 @@
   </sortState>
   <phoneticPr fontId="74" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
